--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value866.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value866.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.149557358247112</v>
+        <v>1.055285096168518</v>
       </c>
       <c r="B1">
-        <v>2.602165815031063</v>
+        <v>3.332328319549561</v>
       </c>
       <c r="C1">
-        <v>4.223701418201705</v>
+        <v>2.876245021820068</v>
       </c>
       <c r="D1">
-        <v>2.576374594508132</v>
+        <v>2.297162532806396</v>
       </c>
       <c r="E1">
-        <v>1.167258155777533</v>
+        <v>1.46152675151825</v>
       </c>
     </row>
   </sheetData>
